--- a/Raj Chudasama/2022-12-07/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-07-22.xlsx
+++ b/Raj Chudasama/2022-12-07/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-07-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
   <si>
     <t>Guest Name</t>
   </si>
@@ -232,10 +232,7 @@
     <t>01-Dec-21</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07-Dec-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14-Aug-22</t>
+    <t>14-Aug-22</t>
   </si>
   <si>
     <t>27-Oct-22</t>
@@ -669,10 +666,10 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -692,10 +689,10 @@
         <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -715,10 +712,10 @@
         <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -738,10 +735,10 @@
         <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -761,10 +758,10 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -781,13 +778,13 @@
         <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -807,10 +804,10 @@
         <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -830,10 +827,10 @@
         <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -853,10 +850,10 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -876,10 +873,10 @@
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -899,13 +896,13 @@
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -925,10 +922,10 @@
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -951,10 +948,10 @@
         <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -974,10 +971,10 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -997,10 +994,10 @@
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1017,13 +1014,13 @@
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1043,10 +1040,10 @@
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1066,10 +1063,10 @@
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1086,13 +1083,13 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1112,13 +1109,13 @@
         <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1135,13 +1132,13 @@
         <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1161,10 +1158,10 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1184,10 +1181,10 @@
         <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1207,10 +1204,10 @@
         <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1230,10 +1227,10 @@
         <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1253,10 +1250,10 @@
         <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1273,13 +1270,13 @@
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1296,13 +1293,13 @@
         <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1322,10 +1319,10 @@
         <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1345,10 +1342,10 @@
         <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1368,10 +1365,10 @@
         <v>70</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1388,13 +1385,13 @@
         <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1411,13 +1408,13 @@
         <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
